--- a/src/test/resources/testdata/testdata (5).xlsx
+++ b/src/test/resources/testdata/testdata (5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\TripGain-main (1)\TripGain-main\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3DEC3B-3971-4C00-8545-5FA00E7FB863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396D7C28-DEE4-4C3A-9AD3-F0016416ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_01" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="74">
   <si>
     <t>URL</t>
   </si>
@@ -1445,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C0DD1-8EC4-42D8-B62A-B731CCCB6311}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2682,7 +2682,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2785,6 +2785,9 @@
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2814,6 +2817,9 @@
       <c r="I4">
         <v>3</v>
       </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2843,6 +2849,9 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2872,6 +2881,9 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2901,6 +2913,9 @@
       <c r="I7">
         <v>2</v>
       </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2930,6 +2945,9 @@
       <c r="I8">
         <v>3</v>
       </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2959,6 +2977,9 @@
       <c r="I9">
         <v>4</v>
       </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2988,6 +3009,9 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -3017,6 +3041,9 @@
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3046,6 +3073,9 @@
       <c r="I12">
         <v>3</v>
       </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3075,6 +3105,9 @@
       <c r="I13">
         <v>4</v>
       </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3104,6 +3137,9 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3133,6 +3169,9 @@
       <c r="I15">
         <v>2</v>
       </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -3162,8 +3201,11 @@
       <c r="I16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -3191,8 +3233,11 @@
       <c r="I17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -3220,8 +3265,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -3248,6 +3296,9 @@
       </c>
       <c r="I19">
         <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +3347,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:J19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4033,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD04321-50E0-421D-86E6-1A9692A85917}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4137,6 +4188,9 @@
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4166,6 +4220,9 @@
       <c r="I4">
         <v>3</v>
       </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -4195,6 +4252,9 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -4224,6 +4284,9 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4253,6 +4316,9 @@
       <c r="I7">
         <v>2</v>
       </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4282,6 +4348,9 @@
       <c r="I8">
         <v>3</v>
       </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -4311,6 +4380,9 @@
       <c r="I9">
         <v>4</v>
       </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4340,6 +4412,9 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -4369,6 +4444,9 @@
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4398,6 +4476,9 @@
       <c r="I12">
         <v>3</v>
       </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -4427,6 +4508,9 @@
       <c r="I13">
         <v>4</v>
       </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -4456,6 +4540,9 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -4485,6 +4572,9 @@
       <c r="I15">
         <v>2</v>
       </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -4514,8 +4604,11 @@
       <c r="I16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -4543,8 +4636,11 @@
       <c r="I17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -4572,8 +4668,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -4600,6 +4699,9 @@
       </c>
       <c r="I19">
         <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
